--- a/data/trans_dic/P42C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5092385690607765</v>
+        <v>0.5103003847615016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6085879542576539</v>
+        <v>0.6067522430157906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4916037232678816</v>
+        <v>0.4915192455133769</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6346046245649507</v>
+        <v>0.6322222354446532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7187632163120182</v>
+        <v>0.7182544138397088</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5902778185405397</v>
+        <v>0.591460243506377</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5164550425768726</v>
+        <v>0.5232842808412577</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6738558932618924</v>
+        <v>0.6729175923316819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5196348965299644</v>
+        <v>0.5145286901372489</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6435490056065355</v>
+        <v>0.6506424674324098</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7741253729355203</v>
+        <v>0.7755088643862413</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6182752163549446</v>
+        <v>0.6231832112880974</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6660462089609023</v>
+        <v>0.6624856911346798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8243213123062656</v>
+        <v>0.8309390079131845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7026277052394216</v>
+        <v>0.6949491031407865</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7908514691031094</v>
+        <v>0.7890231774166573</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9350669295422365</v>
+        <v>0.9320330160953222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8393886444236095</v>
+        <v>0.83771898940247</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8569826659988246</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7929435824251828</v>
+        <v>0.7929435824251829</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7404326327075812</v>
+        <v>0.7436813495545752</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8289195676803579</v>
+        <v>0.8317412663586791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7537245686405712</v>
+        <v>0.7590400447298327</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8134155143136965</v>
+        <v>0.8167981024977584</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.884994252228512</v>
+        <v>0.8814117889740772</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8243285060525455</v>
+        <v>0.8248900591313961</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.9349148398526091</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8838928228501127</v>
+        <v>0.8838928228501126</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8107984221075055</v>
+        <v>0.8081516811108268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9116059224171557</v>
+        <v>0.9095336335738846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8555277273276558</v>
+        <v>0.855381199928157</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8718104932217674</v>
+        <v>0.8712805784459979</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9532582275538624</v>
+        <v>0.9532035311740605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9065242654487667</v>
+        <v>0.9072703305583663</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.8904102573995637</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8629593241578745</v>
+        <v>0.8629593241578744</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7928625568740426</v>
+        <v>0.7890827678818434</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8616303791221143</v>
+        <v>0.864385844677674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8265321563137294</v>
+        <v>0.8278029115473963</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8507420710437097</v>
+        <v>0.8514252688391241</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.911614155978159</v>
+        <v>0.913044882594811</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8918428111908608</v>
+        <v>0.8943891619315888</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7424533139940522</v>
+        <v>0.7446405273797003</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.831683467764655</v>
+        <v>0.8305181782139894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7449846196962261</v>
+        <v>0.7462810794934562</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7767960583631504</v>
+        <v>0.779650547611098</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8598116717642211</v>
+        <v>0.8587848284091856</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7781996501134036</v>
+        <v>0.7794297956529934</v>
       </c>
     </row>
     <row r="25">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>144367</v>
+        <v>144668</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>187717</v>
+        <v>187150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>146238</v>
+        <v>146213</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>179908</v>
+        <v>179232</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>221700</v>
+        <v>221543</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>175591</v>
+        <v>175942</v>
       </c>
     </row>
     <row r="8">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>145818</v>
+        <v>147746</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>225166</v>
+        <v>224852</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>138103</v>
+        <v>136746</v>
       </c>
     </row>
     <row r="11">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>181702</v>
+        <v>183705</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>258670</v>
+        <v>259132</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>164319</v>
+        <v>165623</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>143388</v>
+        <v>142622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116898</v>
+        <v>117836</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>73804</v>
+        <v>72997</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170257</v>
+        <v>169863</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>132603</v>
+        <v>132173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>88169</v>
+        <v>87994</v>
       </c>
     </row>
     <row r="16">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>456600</v>
+        <v>458603</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>571144</v>
+        <v>573088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>375636</v>
+        <v>378285</v>
       </c>
     </row>
     <row r="19">
@@ -1324,13 +1324,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>501606</v>
+        <v>503692</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>609781</v>
+        <v>607312</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>410823</v>
+        <v>411103</v>
       </c>
     </row>
     <row r="20">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>484801</v>
+        <v>483218</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>517529</v>
+        <v>516352</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>407417</v>
+        <v>407347</v>
       </c>
     </row>
     <row r="23">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>521282</v>
+        <v>520965</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>541175</v>
+        <v>541144</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>431702</v>
+        <v>432058</v>
       </c>
     </row>
     <row r="24">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>586813</v>
+        <v>584016</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>624387</v>
+        <v>626384</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>345536</v>
+        <v>346067</v>
       </c>
     </row>
     <row r="27">
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>629651</v>
+        <v>630157</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>660608</v>
+        <v>661645</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>372839</v>
+        <v>373904</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2031233</v>
+        <v>2037217</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2300264</v>
+        <v>2297041</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1535359</v>
+        <v>1538031</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2125189</v>
+        <v>2132998</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2378061</v>
+        <v>2375221</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1603813</v>
+        <v>1606348</v>
       </c>
     </row>
     <row r="32">
